--- a/CH-102 Compare Rows.xlsx
+++ b/CH-102 Compare Rows.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB08BC5B-81EC-4091-80BA-5C943696E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E8226-E171-490D-A1C1-5AF516F0F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Question</t>
   </si>
@@ -444,8 +468,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -460,8 +484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419351" y="603250"/>
-          <a:ext cx="1905000" cy="3787776"/>
+          <a:off x="1775461" y="572770"/>
+          <a:ext cx="1714500" cy="3496310"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -564,6 +588,249 @@
         <a:xfrm>
           <a:off x="4314549" y="676673"/>
           <a:ext cx="333652" cy="733306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18773</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA47B80-F218-4080-84D0-DA440AB0BD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1451333" y="3101738"/>
+          <a:ext cx="353102" cy="653296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA84D27E-EDC8-42A9-96AD-25885C84B088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1775461" y="572770"/>
+          <a:ext cx="1714500" cy="3496310"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 102: Compare Rows!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-AU" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1600" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>In the historical sales table, identify and extract the dates where the sales value on that date is greater than the sales on the previous date.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A2B2F4-D969-4AEF-AE4E-13F159229170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3480159" y="646193"/>
+          <a:ext cx="263167" cy="626626"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -848,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,4 +1511,835 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EBD86C-35EA-4F2B-9291-9A9CD3A1287B}">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="12">
+        <v>45294</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="12">
+        <v>45295</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5" s="12">
+        <v>45297</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6" s="12">
+        <v>45299</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7" s="12">
+        <v>45302</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8" s="12">
+        <v>45303</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="12">
+        <v>45304</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="12">
+        <v>45306</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="12">
+        <v>45308</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="12">
+        <v>45309</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="12">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="12">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="21">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="22">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="13">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="13">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D30" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>45293</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="b">
+        <f>E31&gt;F31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" cm="1">
+        <f t="array" ref="I31:I42">_xlfn._xlws.FILTER(D31:D53,G31:G53)</f>
+        <v>45294</v>
+      </c>
+      <c r="J31" t="b" cm="1">
+        <f t="array" ref="J31:J42">_xlfn.ANCHORARRAY(I31)=G3:G14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D32" s="1">
+        <v>45294</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="b">
+        <f t="shared" ref="G32:G53" si="0">E32&gt;F32</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45295</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45297</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>45296</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45299</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <v>45297</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45302</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <v>45298</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>45299</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45304</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="1">
+        <v>45300</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45308</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="1">
+        <v>45303</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="1">
+        <v>45304</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45312</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="1">
+        <v>45305</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="1">
+        <v>45306</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <v>45307</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <v>45308</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="1">
+        <v>45309</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>45310</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="1">
+        <v>45311</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="1">
+        <v>45312</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="1">
+        <v>45313</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="1">
+        <v>45314</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-102 Compare Rows.xlsx
+++ b/CH-102 Compare Rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E8226-E171-490D-A1C1-5AF516F0F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9544C-4869-41F5-9F8B-C7D83B7CFF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Question</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Single Function</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EBD86C-35EA-4F2B-9291-9A9CD3A1287B}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,6 +1533,7 @@
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,6 +1906,11 @@
       </c>
       <c r="D26" s="9"/>
     </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>45292</v>
@@ -1932,6 +1941,14 @@
         <f t="array" ref="J31:J42">_xlfn.ANCHORARRAY(I31)=G3:G14</f>
         <v>1</v>
       </c>
+      <c r="M31" s="1" cm="1">
+        <f t="array" ref="M31:M42">_xlfn.LET(
+_xlpm.d,_xlfn.DROP(B3:C26,1),
+_xlpm.l,_xlfn.DROP(_xlfn.DROP(B3:C26,-1),,1),
+_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.d,_xlfn.TAKE(_xlpm.d,,-1)&gt;_xlpm.l),,1)
+)</f>
+        <v>45294</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
@@ -1953,8 +1970,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M32" s="1">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>45295</v>
       </c>
@@ -1974,8 +1994,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M33" s="1">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>45296</v>
       </c>
@@ -1995,8 +2018,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M34" s="1">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>45297</v>
       </c>
@@ -2016,8 +2042,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M35" s="1">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>45298</v>
       </c>
@@ -2037,8 +2066,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M36" s="1">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>45299</v>
       </c>
@@ -2058,8 +2090,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M37" s="1">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>45300</v>
       </c>
@@ -2079,8 +2114,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M38" s="1">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>45301</v>
       </c>
@@ -2100,8 +2138,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M39" s="1">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>45302</v>
       </c>
@@ -2121,8 +2162,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M40" s="1">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>45303</v>
       </c>
@@ -2142,8 +2186,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M41" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>45304</v>
       </c>
@@ -2163,8 +2210,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M42" s="1">
+        <v>45312</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>45305</v>
       </c>
@@ -2178,8 +2228,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>45306</v>
       </c>
@@ -2193,8 +2244,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>45307</v>
       </c>
@@ -2208,8 +2260,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>45308</v>
       </c>
@@ -2223,8 +2276,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>45309</v>
       </c>
@@ -2238,8 +2292,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>45310</v>
       </c>
@@ -2253,8 +2308,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>45311</v>
       </c>
@@ -2268,8 +2324,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>45312</v>
       </c>
@@ -2283,8 +2340,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D51" s="1">
         <v>45313</v>
       </c>
@@ -2298,8 +2356,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>45314</v>
       </c>
@@ -2313,8 +2372,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>45315</v>
       </c>
@@ -2328,8 +2388,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>1</v>
       </c>
